--- a/resources/adm-resources/tourism_early.xlsx
+++ b/resources/adm-resources/tourism_early.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\EOSE09-site\resources\adm-resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanjayes/Documents/PhD/EOSE09-site/resources/adm-resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A679F8D-7FC6-40AE-AD2A-5A46BAD517AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3396C0-1C12-734F-90FA-6060C9B0925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{BD371D69-E200-4E5D-A665-FAE5997E60B0}"/>
+    <workbookView xWindow="-15980" yWindow="-21060" windowWidth="29040" windowHeight="17640" xr2:uid="{BD371D69-E200-4E5D-A665-FAE5997E60B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4292" uniqueCount="2634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="2632">
   <si>
     <t>Region</t>
   </si>
@@ -7013,9 +7013,6 @@
     <t>4.5</t>
   </si>
   <si>
-    <t>Oslo og Akershus (statistical region 2 016)</t>
-  </si>
-  <si>
     <t>NO01</t>
   </si>
   <si>
@@ -7034,9 +7031,6 @@
     <t>80.7 %</t>
   </si>
   <si>
-    <t>Sør-Østlandet (statistical region 2 016)</t>
-  </si>
-  <si>
     <t>NO03</t>
   </si>
   <si>
@@ -7055,9 +7049,6 @@
     <t>28.6</t>
   </si>
   <si>
-    <t>Agder og Rogaland (statistical region 2 016)</t>
-  </si>
-  <si>
     <t>NO04</t>
   </si>
   <si>
@@ -7073,9 +7064,6 @@
     <t>81.7 %</t>
   </si>
   <si>
-    <t>Vestlandet (statistical region 2 016)</t>
-  </si>
-  <si>
     <t>NO05</t>
   </si>
   <si>
@@ -7905,12 +7893,6 @@
   </si>
   <si>
     <t>30.0</t>
-  </si>
-  <si>
-    <t>Search:</t>
-  </si>
-  <si>
-    <t> Reset view</t>
   </si>
   <si>
     <r>
@@ -8046,6 +8028,18 @@
       </rPr>
       <t>(PPS per inhabitant in % of the EU-27 average)</t>
     </r>
+  </si>
+  <si>
+    <t>Oslo og Akershus (statistical region 2016)</t>
+  </si>
+  <si>
+    <t>Sør-Østlandet (statistical region 2016)</t>
+  </si>
+  <si>
+    <t>Agder og Rogaland (statistical region 2016)</t>
+  </si>
+  <si>
+    <t>Vestlandet (statistical region 2016)</t>
   </si>
 </sst>
 </file>
@@ -8205,69 +8199,117 @@
 </styleSheet>
 </file>
 
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Control 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5A637D-C42F-1AD3-415A-B2C4652A6ACD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="Control 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1025"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Control 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80750A1-60D1-32F2-DBF2-52757DF039EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="977900" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8305,7 +8347,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8411,7 +8453,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8553,24 +8595,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF4D761-5F71-4FEA-97D2-98EC4DFBDB68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF4D761-5F71-4FEA-97D2-98EC4DFBDB68}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M664"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="A289" sqref="A289"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8584,34 +8629,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="K1" t="s">
         <v>2625</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>2626</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>2627</v>
       </c>
-      <c r="H1" t="s">
-        <v>2628</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2629</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2630</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2631</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2632</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -8652,7 +8697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -8693,7 +8738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -8734,7 +8779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -8775,7 +8820,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -8816,7 +8861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -8857,7 +8902,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -8898,7 +8943,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -8939,7 +8984,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -8980,7 +9025,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -9021,7 +9066,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -9062,7 +9107,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -9103,7 +9148,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -9144,7 +9189,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -9185,7 +9230,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -9226,7 +9271,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -9267,7 +9312,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -9308,7 +9353,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>186</v>
       </c>
@@ -9349,7 +9394,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>198</v>
       </c>
@@ -9390,7 +9435,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>209</v>
       </c>
@@ -9431,7 +9476,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -9472,7 +9517,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>229</v>
       </c>
@@ -9513,7 +9558,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -9554,7 +9599,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>251</v>
       </c>
@@ -9595,7 +9640,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>261</v>
       </c>
@@ -9636,7 +9681,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>272</v>
       </c>
@@ -9677,7 +9722,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>284</v>
       </c>
@@ -9718,7 +9763,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>294</v>
       </c>
@@ -9759,7 +9804,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>303</v>
       </c>
@@ -9800,7 +9845,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>312</v>
       </c>
@@ -9841,7 +9886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -9882,7 +9927,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>332</v>
       </c>
@@ -9923,7 +9968,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>343</v>
       </c>
@@ -9964,7 +10009,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>354</v>
       </c>
@@ -10005,7 +10050,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>364</v>
       </c>
@@ -10046,7 +10091,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>375</v>
       </c>
@@ -10087,7 +10132,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>386</v>
       </c>
@@ -10128,7 +10173,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>397</v>
       </c>
@@ -10169,7 +10214,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>406</v>
       </c>
@@ -10210,7 +10255,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>416</v>
       </c>
@@ -10251,7 +10296,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>427</v>
       </c>
@@ -10292,7 +10337,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>437</v>
       </c>
@@ -10333,7 +10378,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>446</v>
       </c>
@@ -10374,7 +10419,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>455</v>
       </c>
@@ -10415,7 +10460,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>466</v>
       </c>
@@ -10456,7 +10501,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>477</v>
       </c>
@@ -10497,7 +10542,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>486</v>
       </c>
@@ -10538,7 +10583,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>497</v>
       </c>
@@ -10579,7 +10624,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>506</v>
       </c>
@@ -10620,7 +10665,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>514</v>
       </c>
@@ -10661,7 +10706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>522</v>
       </c>
@@ -10702,7 +10747,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>532</v>
       </c>
@@ -10743,7 +10788,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>542</v>
       </c>
@@ -10784,7 +10829,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>550</v>
       </c>
@@ -10825,7 +10870,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>560</v>
       </c>
@@ -10866,7 +10911,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>571</v>
       </c>
@@ -10907,7 +10952,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>582</v>
       </c>
@@ -10948,7 +10993,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>593</v>
       </c>
@@ -10989,7 +11034,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>604</v>
       </c>
@@ -11030,7 +11075,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>614</v>
       </c>
@@ -11071,7 +11116,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>623</v>
       </c>
@@ -11112,7 +11157,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>630</v>
       </c>
@@ -11153,7 +11198,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>637</v>
       </c>
@@ -11194,7 +11239,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>646</v>
       </c>
@@ -11235,7 +11280,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>655</v>
       </c>
@@ -11276,7 +11321,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>666</v>
       </c>
@@ -11317,7 +11362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>674</v>
       </c>
@@ -11358,7 +11403,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>683</v>
       </c>
@@ -11399,7 +11444,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>690</v>
       </c>
@@ -11440,7 +11485,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>700</v>
       </c>
@@ -11481,7 +11526,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>711</v>
       </c>
@@ -11522,7 +11567,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>717</v>
       </c>
@@ -11563,7 +11608,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>725</v>
       </c>
@@ -11604,7 +11649,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>735</v>
       </c>
@@ -11645,7 +11690,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>746</v>
       </c>
@@ -11686,7 +11731,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>756</v>
       </c>
@@ -11727,7 +11772,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>766</v>
       </c>
@@ -11768,7 +11813,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>777</v>
       </c>
@@ -11809,7 +11854,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>787</v>
       </c>
@@ -11850,7 +11895,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>795</v>
       </c>
@@ -11891,7 +11936,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>806</v>
       </c>
@@ -11932,7 +11977,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>816</v>
       </c>
@@ -11973,7 +12018,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>825</v>
       </c>
@@ -12014,7 +12059,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>833</v>
       </c>
@@ -12055,7 +12100,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>844</v>
       </c>
@@ -12096,7 +12141,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>850</v>
       </c>
@@ -12137,7 +12182,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>861</v>
       </c>
@@ -12178,7 +12223,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>870</v>
       </c>
@@ -12219,7 +12264,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>879</v>
       </c>
@@ -12260,7 +12305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>888</v>
       </c>
@@ -12301,7 +12346,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>898</v>
       </c>
@@ -12342,7 +12387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>908</v>
       </c>
@@ -12383,7 +12428,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>919</v>
       </c>
@@ -12424,7 +12469,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>927</v>
       </c>
@@ -12465,7 +12510,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>937</v>
       </c>
@@ -12506,7 +12551,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>946</v>
       </c>
@@ -12547,7 +12592,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>955</v>
       </c>
@@ -12588,7 +12633,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>965</v>
       </c>
@@ -12629,7 +12674,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>974</v>
       </c>
@@ -12670,7 +12715,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>984</v>
       </c>
@@ -12711,7 +12756,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>993</v>
       </c>
@@ -12752,7 +12797,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1001</v>
       </c>
@@ -12793,7 +12838,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1011</v>
       </c>
@@ -12834,7 +12879,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1018</v>
       </c>
@@ -12875,7 +12920,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1026</v>
       </c>
@@ -12916,7 +12961,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1038</v>
       </c>
@@ -12957,7 +13002,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1046</v>
       </c>
@@ -12998,7 +13043,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1052</v>
       </c>
@@ -13039,7 +13084,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1060</v>
       </c>
@@ -13080,7 +13125,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1065</v>
       </c>
@@ -13121,7 +13166,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1071</v>
       </c>
@@ -13162,7 +13207,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1077</v>
       </c>
@@ -13203,7 +13248,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1082</v>
       </c>
@@ -13244,7 +13289,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1089</v>
       </c>
@@ -13285,7 +13330,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1097</v>
       </c>
@@ -13326,7 +13371,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1104</v>
       </c>
@@ -13367,7 +13412,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1110</v>
       </c>
@@ -13408,7 +13453,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1116</v>
       </c>
@@ -13449,7 +13494,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1122</v>
       </c>
@@ -13490,7 +13535,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1126</v>
       </c>
@@ -13531,7 +13576,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1132</v>
       </c>
@@ -13572,7 +13617,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1138</v>
       </c>
@@ -13613,7 +13658,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1143</v>
       </c>
@@ -13654,7 +13699,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1147</v>
       </c>
@@ -13695,7 +13740,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1153</v>
       </c>
@@ -13736,7 +13781,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1161</v>
       </c>
@@ -13777,7 +13822,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1167</v>
       </c>
@@ -13818,7 +13863,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1173</v>
       </c>
@@ -13859,7 +13904,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1180</v>
       </c>
@@ -13900,7 +13945,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1185</v>
       </c>
@@ -13941,7 +13986,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1191</v>
       </c>
@@ -13982,7 +14027,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1197</v>
       </c>
@@ -14023,7 +14068,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1207</v>
       </c>
@@ -14064,7 +14109,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1215</v>
       </c>
@@ -14105,7 +14150,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1223</v>
       </c>
@@ -14146,7 +14191,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1232</v>
       </c>
@@ -14187,7 +14232,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1239</v>
       </c>
@@ -14228,7 +14273,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1248</v>
       </c>
@@ -14269,7 +14314,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1258</v>
       </c>
@@ -14310,7 +14355,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1269</v>
       </c>
@@ -14351,7 +14396,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1279</v>
       </c>
@@ -14392,7 +14437,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1288</v>
       </c>
@@ -14433,7 +14478,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1296</v>
       </c>
@@ -14474,7 +14519,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1306</v>
       </c>
@@ -14515,7 +14560,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1317</v>
       </c>
@@ -14556,7 +14601,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1326</v>
       </c>
@@ -14597,7 +14642,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1333</v>
       </c>
@@ -14638,7 +14683,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1342</v>
       </c>
@@ -14679,7 +14724,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1352</v>
       </c>
@@ -14720,7 +14765,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1362</v>
       </c>
@@ -14761,7 +14806,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1370</v>
       </c>
@@ -14802,7 +14847,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1378</v>
       </c>
@@ -14843,7 +14888,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1387</v>
       </c>
@@ -14884,7 +14929,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1396</v>
       </c>
@@ -14925,7 +14970,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1405</v>
       </c>
@@ -14966,7 +15011,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1415</v>
       </c>
@@ -15007,7 +15052,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1425</v>
       </c>
@@ -15048,7 +15093,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1430</v>
       </c>
@@ -15089,7 +15134,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1436</v>
       </c>
@@ -15130,7 +15175,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1447</v>
       </c>
@@ -15171,7 +15216,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1456</v>
       </c>
@@ -15212,7 +15257,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1463</v>
       </c>
@@ -15253,7 +15298,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1473</v>
       </c>
@@ -15294,7 +15339,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1482</v>
       </c>
@@ -15335,7 +15380,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1492</v>
       </c>
@@ -15376,7 +15421,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1501</v>
       </c>
@@ -15417,7 +15462,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1510</v>
       </c>
@@ -15458,7 +15503,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1518</v>
       </c>
@@ -15499,7 +15544,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1527</v>
       </c>
@@ -15540,7 +15585,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1538</v>
       </c>
@@ -15581,7 +15626,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1547</v>
       </c>
@@ -15622,7 +15667,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1557</v>
       </c>
@@ -15663,7 +15708,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1565</v>
       </c>
@@ -15704,7 +15749,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1576</v>
       </c>
@@ -15745,7 +15790,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1587</v>
       </c>
@@ -15786,7 +15831,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1598</v>
       </c>
@@ -15827,7 +15872,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1608</v>
       </c>
@@ -15868,7 +15913,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1617</v>
       </c>
@@ -15909,7 +15954,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1626</v>
       </c>
@@ -15950,7 +15995,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1636</v>
       </c>
@@ -15991,7 +16036,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1644</v>
       </c>
@@ -16032,7 +16077,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1652</v>
       </c>
@@ -16073,7 +16118,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1661</v>
       </c>
@@ -16114,7 +16159,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1669</v>
       </c>
@@ -16155,7 +16200,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1677</v>
       </c>
@@ -16196,7 +16241,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1684</v>
       </c>
@@ -16237,7 +16282,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1691</v>
       </c>
@@ -16278,7 +16323,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1697</v>
       </c>
@@ -16319,7 +16364,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1705</v>
       </c>
@@ -16360,7 +16405,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1713</v>
       </c>
@@ -16401,7 +16446,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1722</v>
       </c>
@@ -16442,7 +16487,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1731</v>
       </c>
@@ -16483,7 +16528,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1739</v>
       </c>
@@ -16524,7 +16569,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1746</v>
       </c>
@@ -16565,7 +16610,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1752</v>
       </c>
@@ -16606,7 +16651,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1760</v>
       </c>
@@ -16647,7 +16692,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1770</v>
       </c>
@@ -16688,7 +16733,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1778</v>
       </c>
@@ -16729,7 +16774,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1786</v>
       </c>
@@ -16770,7 +16815,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1793</v>
       </c>
@@ -16811,7 +16856,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1798</v>
       </c>
@@ -16852,7 +16897,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1803</v>
       </c>
@@ -16893,7 +16938,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1807</v>
       </c>
@@ -16934,7 +16979,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1812</v>
       </c>
@@ -16975,7 +17020,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1816</v>
       </c>
@@ -17016,7 +17061,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1820</v>
       </c>
@@ -17057,7 +17102,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1824</v>
       </c>
@@ -17098,7 +17143,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1832</v>
       </c>
@@ -17139,7 +17184,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1840</v>
       </c>
@@ -17180,7 +17225,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1850</v>
       </c>
@@ -17221,7 +17266,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1858</v>
       </c>
@@ -17262,7 +17307,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1866</v>
       </c>
@@ -17303,7 +17348,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1874</v>
       </c>
@@ -17344,7 +17389,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1883</v>
       </c>
@@ -17385,7 +17430,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1890</v>
       </c>
@@ -17426,7 +17471,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1898</v>
       </c>
@@ -17467,7 +17512,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1907</v>
       </c>
@@ -17508,7 +17553,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1914</v>
       </c>
@@ -17549,7 +17594,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1921</v>
       </c>
@@ -17590,7 +17635,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1928</v>
       </c>
@@ -17631,7 +17676,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1936</v>
       </c>
@@ -17672,7 +17717,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1944</v>
       </c>
@@ -17713,7 +17758,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1953</v>
       </c>
@@ -17754,7 +17799,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1960</v>
       </c>
@@ -17795,7 +17840,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1971</v>
       </c>
@@ -17836,7 +17881,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1978</v>
       </c>
@@ -17877,7 +17922,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1986</v>
       </c>
@@ -17918,7 +17963,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1995</v>
       </c>
@@ -17959,7 +18004,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>2003</v>
       </c>
@@ -18000,7 +18045,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2012</v>
       </c>
@@ -18041,7 +18086,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>2021</v>
       </c>
@@ -18082,7 +18127,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>2027</v>
       </c>
@@ -18123,7 +18168,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>2037</v>
       </c>
@@ -18164,7 +18209,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>2048</v>
       </c>
@@ -18205,7 +18250,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>2055</v>
       </c>
@@ -18246,7 +18291,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>2065</v>
       </c>
@@ -18287,7 +18332,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>2072</v>
       </c>
@@ -18328,7 +18373,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>2081</v>
       </c>
@@ -18369,7 +18414,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>2090</v>
       </c>
@@ -18410,7 +18455,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>2098</v>
       </c>
@@ -18451,7 +18496,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>2106</v>
       </c>
@@ -18492,7 +18537,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>2111</v>
       </c>
@@ -18533,7 +18578,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>2117</v>
       </c>
@@ -18574,7 +18619,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>2121</v>
       </c>
@@ -18615,7 +18660,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>2125</v>
       </c>
@@ -18656,7 +18701,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>2130</v>
       </c>
@@ -18697,7 +18742,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2134</v>
       </c>
@@ -18738,7 +18783,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>2140</v>
       </c>
@@ -18779,7 +18824,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>2145</v>
       </c>
@@ -18820,7 +18865,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2150</v>
       </c>
@@ -18861,7 +18906,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>2156</v>
       </c>
@@ -18902,7 +18947,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>2160</v>
       </c>
@@ -18943,7 +18988,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>2164</v>
       </c>
@@ -18984,7 +19029,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>2170</v>
       </c>
@@ -19025,7 +19070,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>2173</v>
       </c>
@@ -19066,7 +19111,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>2179</v>
       </c>
@@ -19107,7 +19152,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>2185</v>
       </c>
@@ -19148,7 +19193,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>2190</v>
       </c>
@@ -19189,7 +19234,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>2195</v>
       </c>
@@ -19230,7 +19275,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>2201</v>
       </c>
@@ -19271,7 +19316,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>2205</v>
       </c>
@@ -19312,7 +19357,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>2209</v>
       </c>
@@ -19353,7 +19398,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2213</v>
       </c>
@@ -19394,7 +19439,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>2217</v>
       </c>
@@ -19435,7 +19480,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>2221</v>
       </c>
@@ -19476,7 +19521,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>2226</v>
       </c>
@@ -19517,7 +19562,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>2232</v>
       </c>
@@ -19558,7 +19603,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>2236</v>
       </c>
@@ -19599,7 +19644,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>2241</v>
       </c>
@@ -19640,7 +19685,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>2245</v>
       </c>
@@ -19681,7 +19726,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>2250</v>
       </c>
@@ -19722,7 +19767,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>2254</v>
       </c>
@@ -19763,7 +19808,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>2260</v>
       </c>
@@ -19804,7 +19849,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>2265</v>
       </c>
@@ -19845,7 +19890,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>2269</v>
       </c>
@@ -19886,7 +19931,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>2273</v>
       </c>
@@ -19927,7 +19972,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>2277</v>
       </c>
@@ -19968,7 +20013,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>2283</v>
       </c>
@@ -20009,7 +20054,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>2289</v>
       </c>
@@ -20050,7 +20095,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>2297</v>
       </c>
@@ -20091,7 +20136,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2303</v>
       </c>
@@ -20132,7 +20177,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>2311</v>
       </c>
@@ -20173,7 +20218,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>2319</v>
       </c>
@@ -20214,12 +20259,12 @@
         <v>385</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B285" t="s">
         <v>2325</v>
-      </c>
-      <c r="B285" t="s">
-        <v>2326</v>
       </c>
       <c r="C285">
         <v>32282</v>
@@ -20228,22 +20273,22 @@
         <v>2305</v>
       </c>
       <c r="E285" t="s">
+        <v>2326</v>
+      </c>
+      <c r="F285" t="s">
         <v>2327</v>
-      </c>
-      <c r="F285" t="s">
-        <v>2328</v>
       </c>
       <c r="G285" t="s">
         <v>564</v>
       </c>
       <c r="H285" t="s">
+        <v>2328</v>
+      </c>
+      <c r="I285" t="s">
         <v>2329</v>
       </c>
-      <c r="I285" t="s">
+      <c r="J285" t="s">
         <v>2330</v>
-      </c>
-      <c r="J285" t="s">
-        <v>2331</v>
       </c>
       <c r="K285" t="s">
         <v>66</v>
@@ -20255,12 +20300,12 @@
         <v>703</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>2332</v>
+        <v>2629</v>
       </c>
       <c r="B286" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="C286">
         <v>32284</v>
@@ -20269,19 +20314,19 @@
         <v>2305</v>
       </c>
       <c r="E286" t="s">
+        <v>2332</v>
+      </c>
+      <c r="F286" t="s">
+        <v>2333</v>
+      </c>
+      <c r="G286" t="s">
         <v>2334</v>
       </c>
-      <c r="F286" t="s">
+      <c r="H286" t="s">
         <v>2335</v>
       </c>
-      <c r="G286" t="s">
+      <c r="I286" t="s">
         <v>2336</v>
-      </c>
-      <c r="H286" t="s">
-        <v>2337</v>
-      </c>
-      <c r="I286" t="s">
-        <v>2338</v>
       </c>
       <c r="J286" t="s">
         <v>1022</v>
@@ -20296,12 +20341,12 @@
         <v>703</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>2339</v>
+        <v>2630</v>
       </c>
       <c r="B287" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="C287">
         <v>32285</v>
@@ -20310,7 +20355,7 @@
         <v>2305</v>
       </c>
       <c r="E287" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="F287" t="s">
         <v>828</v>
@@ -20319,13 +20364,13 @@
         <v>518</v>
       </c>
       <c r="H287" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="I287" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="J287" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="K287" t="s">
         <v>383</v>
@@ -20337,12 +20382,12 @@
         <v>703</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>2345</v>
+        <v>2631</v>
       </c>
       <c r="B288" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="C288">
         <v>32286</v>
@@ -20351,19 +20396,19 @@
         <v>2305</v>
       </c>
       <c r="E288" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="F288" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="G288" t="s">
         <v>750</v>
       </c>
       <c r="H288" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="I288" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="J288" t="s">
         <v>2062</v>
@@ -20378,18 +20423,18 @@
         <v>703</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
       <c r="B289" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
       <c r="C289">
         <v>33265</v>
       </c>
       <c r="D289" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="E289" t="s">
         <v>703</v>
@@ -20398,13 +20443,13 @@
         <v>703</v>
       </c>
       <c r="G289" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="H289" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="I289" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
       <c r="J289" t="s">
         <v>1658</v>
@@ -20419,18 +20464,18 @@
         <v>703</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="B290" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="C290">
         <v>33266</v>
       </c>
       <c r="D290" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="E290" t="s">
         <v>703</v>
@@ -20439,39 +20484,39 @@
         <v>703</v>
       </c>
       <c r="G290" t="s">
+        <v>2355</v>
+      </c>
+      <c r="H290" t="s">
+        <v>2356</v>
+      </c>
+      <c r="I290" t="s">
+        <v>2357</v>
+      </c>
+      <c r="J290" t="s">
+        <v>2358</v>
+      </c>
+      <c r="K290" t="s">
         <v>2359</v>
       </c>
-      <c r="H290" t="s">
+      <c r="L290" t="s">
+        <v>703</v>
+      </c>
+      <c r="M290" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
         <v>2360</v>
       </c>
-      <c r="I290" t="s">
+      <c r="B291" t="s">
         <v>2361</v>
-      </c>
-      <c r="J290" t="s">
-        <v>2362</v>
-      </c>
-      <c r="K290" t="s">
-        <v>2363</v>
-      </c>
-      <c r="L290" t="s">
-        <v>703</v>
-      </c>
-      <c r="M290" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>2364</v>
-      </c>
-      <c r="B291" t="s">
-        <v>2365</v>
       </c>
       <c r="C291">
         <v>33267</v>
       </c>
       <c r="D291" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="E291" t="s">
         <v>703</v>
@@ -20480,13 +20525,13 @@
         <v>703</v>
       </c>
       <c r="G291" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="H291" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="I291" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="J291" t="s">
         <v>2231</v>
@@ -20501,18 +20546,18 @@
         <v>703</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="B292" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="C292">
         <v>33268</v>
       </c>
       <c r="D292" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="E292" t="s">
         <v>703</v>
@@ -20524,13 +20569,13 @@
         <v>277</v>
       </c>
       <c r="H292" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="I292" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="J292" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="K292" t="s">
         <v>540</v>
@@ -20542,18 +20587,18 @@
         <v>703</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="B293" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="C293">
         <v>33269</v>
       </c>
       <c r="D293" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="E293" t="s">
         <v>703</v>
@@ -20562,16 +20607,16 @@
         <v>703</v>
       </c>
       <c r="G293" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="H293" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="I293" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="J293" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="K293" t="s">
         <v>66</v>
@@ -20583,18 +20628,18 @@
         <v>703</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="B294" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="C294">
         <v>33270</v>
       </c>
       <c r="D294" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="E294" t="s">
         <v>703</v>
@@ -20606,13 +20651,13 @@
         <v>2262</v>
       </c>
       <c r="H294" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="I294" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
       <c r="J294" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
       <c r="K294" t="s">
         <v>351</v>
@@ -20624,18 +20669,18 @@
         <v>703</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="B295" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
       <c r="C295">
         <v>33271</v>
       </c>
       <c r="D295" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="E295" t="s">
         <v>703</v>
@@ -20644,13 +20689,13 @@
         <v>703</v>
       </c>
       <c r="G295" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="H295" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="I295" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="J295" t="s">
         <v>2155</v>
@@ -20665,18 +20710,18 @@
         <v>703</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="B296" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="C296">
         <v>35272</v>
       </c>
       <c r="D296" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="E296" t="s">
         <v>703</v>
@@ -20688,51 +20733,51 @@
         <v>704</v>
       </c>
       <c r="H296" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="I296" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="J296" t="s">
         <v>2076</v>
       </c>
       <c r="K296" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="L296" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="M296" t="s">
         <v>1935</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="B297" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="C297">
         <v>36273</v>
       </c>
       <c r="D297" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="E297" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="F297" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="G297" t="s">
         <v>859</v>
       </c>
       <c r="H297" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="I297" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="J297" t="s">
         <v>831</v>
@@ -20741,24 +20786,24 @@
         <v>1000</v>
       </c>
       <c r="L297" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
       <c r="M297" t="s">
-        <v>2404</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="B298" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="C298">
         <v>37274</v>
       </c>
       <c r="D298" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="E298" t="s">
         <v>703</v>
@@ -20770,10 +20815,10 @@
         <v>704</v>
       </c>
       <c r="H298" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="I298" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="J298" t="s">
         <v>704</v>
@@ -20782,24 +20827,24 @@
         <v>704</v>
       </c>
       <c r="L298" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="M298" t="s">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="B299" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="C299">
         <v>37275</v>
       </c>
       <c r="D299" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="E299" t="s">
         <v>703</v>
@@ -20811,10 +20856,10 @@
         <v>704</v>
       </c>
       <c r="H299" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="I299" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="J299" t="s">
         <v>704</v>
@@ -20823,24 +20868,24 @@
         <v>704</v>
       </c>
       <c r="L299" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="M299" t="s">
         <v>1906</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="B300" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="C300">
         <v>37276</v>
       </c>
       <c r="D300" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="E300" t="s">
         <v>703</v>
@@ -20852,10 +20897,10 @@
         <v>704</v>
       </c>
       <c r="H300" t="s">
-        <v>2419</v>
+        <v>2415</v>
       </c>
       <c r="I300" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
       <c r="J300" t="s">
         <v>704</v>
@@ -20864,24 +20909,24 @@
         <v>704</v>
       </c>
       <c r="L300" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="M300" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="B301" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="C301">
         <v>38277</v>
       </c>
       <c r="D301" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="E301" t="s">
         <v>703</v>
@@ -20899,10 +20944,10 @@
         <v>703</v>
       </c>
       <c r="J301" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="K301" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="L301" t="s">
         <v>1480</v>
@@ -20911,18 +20956,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="B302" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="C302">
         <v>38278</v>
       </c>
       <c r="D302" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="E302" t="s">
         <v>703</v>
@@ -20940,30 +20985,30 @@
         <v>703</v>
       </c>
       <c r="J302" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="K302" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
       <c r="L302" t="s">
-        <v>2432</v>
+        <v>2428</v>
       </c>
       <c r="M302" t="s">
         <v>1935</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="B303" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="C303">
         <v>38279</v>
       </c>
       <c r="D303" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="E303" t="s">
         <v>703</v>
@@ -20981,30 +21026,30 @@
         <v>703</v>
       </c>
       <c r="J303" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
       <c r="K303" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
       <c r="L303" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="M303" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
       <c r="B304" t="s">
-        <v>2439</v>
+        <v>2435</v>
       </c>
       <c r="C304">
         <v>38280</v>
       </c>
       <c r="D304" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="E304" t="s">
         <v>703</v>
@@ -21022,45 +21067,45 @@
         <v>703</v>
       </c>
       <c r="J304" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
       <c r="K304" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
       <c r="L304" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="M304" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
       <c r="B305" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="C305">
         <v>39282</v>
       </c>
       <c r="D305" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E305" t="s">
-        <v>2446</v>
+        <v>2442</v>
       </c>
       <c r="F305" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
       <c r="G305" t="s">
         <v>704</v>
       </c>
       <c r="H305" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
       <c r="I305" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
       <c r="J305" t="s">
         <v>733</v>
@@ -21075,30 +21120,30 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
       <c r="B306" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
       <c r="C306">
         <v>39283</v>
       </c>
       <c r="D306" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E306" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
       <c r="F306" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="G306" t="s">
         <v>704</v>
       </c>
       <c r="H306" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
       <c r="I306" t="s">
         <v>1264</v>
@@ -21116,33 +21161,33 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="B307" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="C307">
         <v>39284</v>
       </c>
       <c r="D307" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E307" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
       <c r="F307" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="G307" t="s">
         <v>704</v>
       </c>
       <c r="H307" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="I307" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
       <c r="J307" t="s">
         <v>1171</v>
@@ -21151,121 +21196,121 @@
         <v>2200</v>
       </c>
       <c r="L307" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="M307" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
       <c r="B308" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="C308">
         <v>39285</v>
       </c>
       <c r="D308" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E308" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
       <c r="F308" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
       <c r="G308" t="s">
         <v>704</v>
       </c>
       <c r="H308" t="s">
-        <v>2466</v>
+        <v>2462</v>
       </c>
       <c r="I308" t="s">
-        <v>2467</v>
+        <v>2463</v>
       </c>
       <c r="J308" t="s">
-        <v>2468</v>
+        <v>2464</v>
       </c>
       <c r="K308" t="s">
         <v>715</v>
       </c>
       <c r="L308" t="s">
-        <v>2469</v>
+        <v>2465</v>
       </c>
       <c r="M308" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
       <c r="B309" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
       <c r="C309">
         <v>39286</v>
       </c>
       <c r="D309" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E309" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
       <c r="F309" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
       <c r="G309" t="s">
         <v>704</v>
       </c>
       <c r="H309" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
       <c r="I309" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
       <c r="J309" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
       <c r="K309" t="s">
         <v>635</v>
       </c>
       <c r="L309" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="M309" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="B310" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
       <c r="C310">
         <v>39287</v>
       </c>
       <c r="D310" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E310" t="s">
-        <v>2479</v>
+        <v>2475</v>
       </c>
       <c r="F310" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
       <c r="G310" t="s">
         <v>704</v>
       </c>
       <c r="H310" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
       <c r="I310" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
       <c r="J310" t="s">
         <v>143</v>
@@ -21274,39 +21319,39 @@
         <v>206</v>
       </c>
       <c r="L310" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
       <c r="M310" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="B311" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="C311">
         <v>39288</v>
       </c>
       <c r="D311" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E311" t="s">
-        <v>2486</v>
+        <v>2482</v>
       </c>
       <c r="F311" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
       <c r="G311" t="s">
         <v>704</v>
       </c>
       <c r="H311" t="s">
-        <v>2488</v>
+        <v>2484</v>
       </c>
       <c r="I311" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="J311" t="s">
         <v>518</v>
@@ -21315,39 +21360,39 @@
         <v>635</v>
       </c>
       <c r="L311" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
       <c r="M311" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>2491</v>
+        <v>2487</v>
       </c>
       <c r="B312" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
       <c r="C312">
         <v>39289</v>
       </c>
       <c r="D312" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E312" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
       <c r="F312" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
       <c r="G312" t="s">
         <v>704</v>
       </c>
       <c r="H312" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="I312" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
       <c r="J312" t="s">
         <v>969</v>
@@ -21356,39 +21401,39 @@
         <v>673</v>
       </c>
       <c r="L312" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
       <c r="M312" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
       <c r="B313" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
       <c r="C313">
         <v>39290</v>
       </c>
       <c r="D313" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E313" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="F313" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="G313" t="s">
         <v>704</v>
       </c>
       <c r="H313" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="I313" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
       <c r="J313" t="s">
         <v>2322</v>
@@ -21403,33 +21448,33 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="B314" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="C314">
         <v>39291</v>
       </c>
       <c r="D314" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E314" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="F314" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
       <c r="G314" t="s">
         <v>704</v>
       </c>
       <c r="H314" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I314" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="J314" t="s">
         <v>2293</v>
@@ -21444,33 +21489,33 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="B315" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
       <c r="C315">
         <v>39292</v>
       </c>
       <c r="D315" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E315" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="F315" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="G315" t="s">
         <v>704</v>
       </c>
       <c r="H315" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="I315" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
       <c r="J315" t="s">
         <v>42</v>
@@ -21479,39 +21524,39 @@
         <v>2097</v>
       </c>
       <c r="L315" t="s">
-        <v>2516</v>
+        <v>2512</v>
       </c>
       <c r="M315" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>2517</v>
+        <v>2513</v>
       </c>
       <c r="B316" t="s">
-        <v>2518</v>
+        <v>2514</v>
       </c>
       <c r="C316">
         <v>39293</v>
       </c>
       <c r="D316" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E316" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
       <c r="F316" t="s">
-        <v>2520</v>
+        <v>2516</v>
       </c>
       <c r="G316" t="s">
         <v>704</v>
       </c>
       <c r="H316" t="s">
-        <v>2521</v>
+        <v>2517</v>
       </c>
       <c r="I316" t="s">
-        <v>2522</v>
+        <v>2518</v>
       </c>
       <c r="J316" t="s">
         <v>831</v>
@@ -21520,27 +21565,27 @@
         <v>1340</v>
       </c>
       <c r="L316" t="s">
-        <v>2523</v>
+        <v>2519</v>
       </c>
       <c r="M316" t="s">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="B317" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="C317">
         <v>39294</v>
       </c>
       <c r="D317" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E317" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="F317" t="s">
         <v>1196</v>
@@ -21549,92 +21594,92 @@
         <v>704</v>
       </c>
       <c r="H317" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="I317" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="J317" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="K317" t="s">
         <v>1158</v>
       </c>
       <c r="L317" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="M317" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="B318" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="C318">
         <v>39295</v>
       </c>
       <c r="D318" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E318" t="s">
-        <v>2533</v>
+        <v>2529</v>
       </c>
       <c r="F318" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
       <c r="G318" t="s">
         <v>704</v>
       </c>
       <c r="H318" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
       <c r="I318" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="J318" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="K318" t="s">
         <v>2200</v>
       </c>
       <c r="L318" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="M318" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="B319" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="C319">
         <v>39296</v>
       </c>
       <c r="D319" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E319" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
       <c r="F319" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="G319" t="s">
         <v>704</v>
       </c>
       <c r="H319" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="I319" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
       <c r="J319" t="s">
         <v>431</v>
@@ -21649,156 +21694,156 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
       <c r="B320" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
       <c r="C320">
         <v>39297</v>
       </c>
       <c r="D320" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E320" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
       <c r="F320" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="G320" t="s">
         <v>704</v>
       </c>
       <c r="H320" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
       <c r="I320" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
       <c r="J320" t="s">
         <v>347</v>
       </c>
       <c r="K320" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="L320" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="M320" t="s">
-        <v>2393</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="B321" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
       <c r="C321">
         <v>39298</v>
       </c>
       <c r="D321" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E321" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="F321" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="G321" t="s">
         <v>704</v>
       </c>
       <c r="H321" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
       <c r="I321" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="J321" t="s">
-        <v>2557</v>
+        <v>2553</v>
       </c>
       <c r="K321" t="s">
         <v>2240</v>
       </c>
       <c r="L321" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="M321" t="s">
-        <v>2393</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>2558</v>
+        <v>2554</v>
       </c>
       <c r="B322" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="C322">
         <v>39299</v>
       </c>
       <c r="D322" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E322" t="s">
-        <v>2560</v>
+        <v>2556</v>
       </c>
       <c r="F322" t="s">
-        <v>2561</v>
+        <v>2557</v>
       </c>
       <c r="G322" t="s">
         <v>704</v>
       </c>
       <c r="H322" t="s">
-        <v>2562</v>
+        <v>2558</v>
       </c>
       <c r="I322" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
       <c r="J322" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
       <c r="K322" t="s">
         <v>2200</v>
       </c>
       <c r="L322" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="M322" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>2566</v>
+        <v>2562</v>
       </c>
       <c r="B323" t="s">
-        <v>2567</v>
+        <v>2563</v>
       </c>
       <c r="C323">
         <v>39300</v>
       </c>
       <c r="D323" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E323" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
       <c r="F323" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
       <c r="G323" t="s">
         <v>704</v>
       </c>
       <c r="H323" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I323" t="s">
-        <v>2571</v>
+        <v>2567</v>
       </c>
       <c r="J323" t="s">
         <v>132</v>
@@ -21813,33 +21858,33 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B324" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="C324">
         <v>39301</v>
       </c>
       <c r="D324" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E324" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="F324" t="s">
-        <v>2575</v>
+        <v>2571</v>
       </c>
       <c r="G324" t="s">
         <v>704</v>
       </c>
       <c r="H324" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
       <c r="I324" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
       <c r="J324" t="s">
         <v>510</v>
@@ -21848,42 +21893,42 @@
         <v>24</v>
       </c>
       <c r="L324" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="M324" t="s">
         <v>1935</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
       <c r="B325" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="C325">
         <v>39302</v>
       </c>
       <c r="D325" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E325" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="F325" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="G325" t="s">
         <v>704</v>
       </c>
       <c r="H325" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="I325" t="s">
-        <v>2583</v>
+        <v>2579</v>
       </c>
       <c r="J325" t="s">
-        <v>2584</v>
+        <v>2580</v>
       </c>
       <c r="K325" t="s">
         <v>2240</v>
@@ -21895,33 +21940,33 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>2585</v>
+        <v>2581</v>
       </c>
       <c r="B326" t="s">
-        <v>2586</v>
+        <v>2582</v>
       </c>
       <c r="C326">
         <v>39303</v>
       </c>
       <c r="D326" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E326" t="s">
-        <v>2587</v>
+        <v>2583</v>
       </c>
       <c r="F326" t="s">
-        <v>2588</v>
+        <v>2584</v>
       </c>
       <c r="G326" t="s">
         <v>704</v>
       </c>
       <c r="H326" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
       <c r="I326" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="J326" t="s">
         <v>2279</v>
@@ -21930,118 +21975,118 @@
         <v>2240</v>
       </c>
       <c r="L326" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
       <c r="M326" t="s">
-        <v>2592</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
       <c r="B327" t="s">
-        <v>2594</v>
+        <v>2590</v>
       </c>
       <c r="C327">
         <v>39304</v>
       </c>
       <c r="D327" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E327" t="s">
-        <v>2595</v>
+        <v>2591</v>
       </c>
       <c r="F327" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
       <c r="G327" t="s">
         <v>704</v>
       </c>
       <c r="H327" t="s">
-        <v>2597</v>
+        <v>2593</v>
       </c>
       <c r="I327" t="s">
-        <v>2598</v>
+        <v>2594</v>
       </c>
       <c r="J327" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
       <c r="K327" t="s">
         <v>663</v>
       </c>
       <c r="L327" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
       <c r="M327" t="s">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>2601</v>
+        <v>2597</v>
       </c>
       <c r="B328" t="s">
-        <v>2602</v>
+        <v>2598</v>
       </c>
       <c r="C328">
         <v>39305</v>
       </c>
       <c r="D328" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E328" t="s">
-        <v>2603</v>
+        <v>2599</v>
       </c>
       <c r="F328" t="s">
-        <v>2604</v>
+        <v>2600</v>
       </c>
       <c r="G328" t="s">
         <v>704</v>
       </c>
       <c r="H328" t="s">
-        <v>2605</v>
+        <v>2601</v>
       </c>
       <c r="I328" t="s">
-        <v>2606</v>
+        <v>2602</v>
       </c>
       <c r="J328" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="K328" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
       <c r="M328" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
       <c r="B329" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="C329">
         <v>39306</v>
       </c>
       <c r="D329" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E329" t="s">
-        <v>2610</v>
+        <v>2606</v>
       </c>
       <c r="F329" t="s">
-        <v>2611</v>
+        <v>2607</v>
       </c>
       <c r="G329" t="s">
         <v>704</v>
       </c>
       <c r="H329" t="s">
-        <v>2612</v>
+        <v>2608</v>
       </c>
       <c r="I329" t="s">
         <v>1586</v>
@@ -22050,1752 +22095,1057 @@
         <v>990</v>
       </c>
       <c r="K329" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
       <c r="L329" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="M329" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
       <c r="B330" t="s">
-        <v>2615</v>
+        <v>2611</v>
       </c>
       <c r="C330">
         <v>39307</v>
       </c>
       <c r="D330" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E330" t="s">
-        <v>2616</v>
+        <v>2612</v>
       </c>
       <c r="F330" t="s">
-        <v>2617</v>
+        <v>2613</v>
       </c>
       <c r="G330" t="s">
         <v>704</v>
       </c>
       <c r="H330" t="s">
-        <v>2618</v>
+        <v>2614</v>
       </c>
       <c r="I330" t="s">
-        <v>2619</v>
+        <v>2615</v>
       </c>
       <c r="J330" t="s">
-        <v>2620</v>
+        <v>2616</v>
       </c>
       <c r="K330" t="s">
         <v>1194</v>
       </c>
       <c r="L330" t="s">
-        <v>2621</v>
+        <v>2617</v>
       </c>
       <c r="M330" t="s">
-        <v>2622</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
     </row>
-    <row r="333" spans="1:13" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="3" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="4" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="3" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="4" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="4" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="4" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="4" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="3" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="4" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="3" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="4" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="4" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="4" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="3" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="4" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="3" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="4" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="3" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="4" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="3" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="4" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="3" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A427" s="4" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A428" s="3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="4" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="3" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="4" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="3" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="4" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="3" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="4" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="3" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="3" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A439" s="4" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="3" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="4" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="3" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A443" s="4" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A444" s="3" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="4" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="3" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A447" s="4" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="3" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="4" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="3" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A451" s="4" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="3" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="4" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="3" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A455" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="3" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="4" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="3" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="4" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="3" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="4" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="3" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="4" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="3" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="4" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="3" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="4" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A468" s="3" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="4" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="3" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A471" s="4" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="3" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="4" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="3" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="4" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A476" s="3" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A477" s="4" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="3" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A479" s="4" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A480" s="3" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A481" s="4" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A482" s="3" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A483" s="4" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="3" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A485" s="4" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A486" s="3" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="4" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A488" s="3" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="4" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="3" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="4" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A492" s="3" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A493" s="4" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="3" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A495" s="4" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A496" s="3" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A497" s="4" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="3" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="4" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A500" s="3" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="4" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="3" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="4" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="3" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A505" s="4" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A506" s="3" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A507" s="4" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A508" s="3" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A509" s="4" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A510" s="3" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A511" s="4" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="3" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A513" s="4" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A514" s="3" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A515" s="4" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A516" s="3" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A517" s="4" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A518" s="3" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A519" s="4" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="3" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A521" s="4" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="522" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A522" s="3" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="523" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="4" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="524" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A524" s="3" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="4" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="526" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="3" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A527" s="4" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A528" s="3" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="4" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="3" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A531" s="4" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="532" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A532" s="3" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="533" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A533" s="4" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="534" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A534" s="3" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A535" s="4" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="536" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="3" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="537" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A537" s="4" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="538" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A538" s="3" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A539" s="4" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="3" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="4" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="542" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A542" s="3" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="543" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A543" s="4" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A544" s="3" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A545" s="4" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A546" s="3" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="4" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="548" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A548" s="3" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A549" s="4" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="550" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="3" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A551" s="4" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A552" s="3" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A553" s="4" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A554" s="3" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A555" s="4" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A556" s="3" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A557" s="4" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A558" s="3" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A559" s="4" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="560" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A560" s="3" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="4" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A562" s="3" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="563" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A563" s="4" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A564" s="3" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A565" s="4" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A566" s="3" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A567" s="4" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="568" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A568" s="3" t="s">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A569" s="4" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="570" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A570" s="3" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A571" s="4" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A572" s="3" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="573" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A573" s="4" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="574" spans="1:1" ht="99.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A574" s="3" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="575" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A575" s="4" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="576" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A576" s="3" t="s">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="577" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A577" s="4" t="s">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="578" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A578" s="3" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="579" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A579" s="4" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A580" s="3" t="s">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A581" s="4" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A582" s="3" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="583" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A583" s="4" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="584" spans="1:1" ht="99.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="3" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A585" s="4" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="586" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A586" s="3" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="587" spans="1:1" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A587" s="4" t="s">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="588" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A588" s="3" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="589" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A589" s="4" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="590" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A590" s="3" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="591" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A591" s="4" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="592" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A592" s="3" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="593" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A593" s="4" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="594" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A594" s="3" t="s">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="595" spans="1:1" ht="99.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A595" s="4" t="s">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="596" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A596" s="3" t="s">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="597" spans="1:1" ht="99.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A597" s="4" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="598" spans="1:1" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A598" s="3" t="s">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="599" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A599" s="4" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="600" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A600" s="3" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="601" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A601" s="4" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="602" spans="1:1" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A602" s="3" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="603" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A603" s="4" t="s">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="604" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A604" s="3" t="s">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="605" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A605" s="4" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="606" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A606" s="3" t="s">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="607" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A607" s="4" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="608" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A608" s="3" t="s">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="609" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A609" s="4" t="s">
-        <v>2277</v>
-      </c>
-    </row>
-    <row r="610" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A610" s="3" t="s">
-        <v>2283</v>
-      </c>
-    </row>
-    <row r="611" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A611" s="4" t="s">
-        <v>2289</v>
-      </c>
-    </row>
-    <row r="612" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A612" s="3" t="s">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="613" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A613" s="4" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="614" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A614" s="3" t="s">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="615" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A615" s="4" t="s">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="616" spans="1:1" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A616" s="3" t="s">
-        <v>2325</v>
-      </c>
-    </row>
-    <row r="617" spans="1:1" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A617" s="4" t="s">
-        <v>2332</v>
-      </c>
-    </row>
-    <row r="618" spans="1:1" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A618" s="3" t="s">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="619" spans="1:1" ht="99.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A619" s="4" t="s">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="620" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A620" s="3" t="s">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="621" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A621" s="4" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="622" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A622" s="3" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="623" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A623" s="4" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="624" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A624" s="3" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="625" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A625" s="4" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="626" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A626" s="3" t="s">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="627" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A627" s="4" t="s">
-        <v>2389</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A628" s="3" t="s">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="629" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A629" s="4" t="s">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="630" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A630" s="3" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="631" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A631" s="4" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="632" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A632" s="3" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="633" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A633" s="4" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="634" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A634" s="3" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="635" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A635" s="4" t="s">
-        <v>2438</v>
-      </c>
-    </row>
-    <row r="636" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A636" s="3" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="637" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A637" s="4" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="638" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A638" s="3" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="639" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A639" s="4" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="640" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A640" s="3" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="641" spans="1:1" ht="99.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A641" s="4" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="642" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A642" s="3" t="s">
-        <v>2484</v>
-      </c>
-    </row>
-    <row r="643" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A643" s="4" t="s">
-        <v>2491</v>
-      </c>
-    </row>
-    <row r="644" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A644" s="3" t="s">
-        <v>2498</v>
-      </c>
-    </row>
-    <row r="645" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A645" s="4" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="646" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A646" s="3" t="s">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="647" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A647" s="4" t="s">
-        <v>2517</v>
-      </c>
-    </row>
-    <row r="648" spans="1:1" ht="99.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A648" s="3" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="649" spans="1:1" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A649" s="4" t="s">
-        <v>2531</v>
-      </c>
-    </row>
-    <row r="650" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A650" s="3" t="s">
-        <v>2538</v>
-      </c>
-    </row>
-    <row r="651" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A651" s="4" t="s">
-        <v>2544</v>
-      </c>
-    </row>
-    <row r="652" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A652" s="3" t="s">
-        <v>2551</v>
-      </c>
-    </row>
-    <row r="653" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A653" s="4" t="s">
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="654" spans="1:1" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A654" s="3" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="655" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A655" s="4" t="s">
-        <v>2572</v>
-      </c>
-    </row>
-    <row r="656" spans="1:1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A656" s="3" t="s">
-        <v>2578</v>
-      </c>
-    </row>
-    <row r="657" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A657" s="4" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="658" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A658" s="3" t="s">
-        <v>2593</v>
-      </c>
-    </row>
-    <row r="659" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A659" s="4" t="s">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="660" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A660" s="3" t="s">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="661" spans="1:1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A661" s="6" t="s">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="662" spans="1:1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A662" s="7" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="663" spans="1:1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A663" s="8" t="s">
-        <v>2624</v>
-      </c>
-    </row>
-    <row r="664" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2"/>
+    </row>
+    <row r="334" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3"/>
+    </row>
+    <row r="335" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="4"/>
+    </row>
+    <row r="336" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3"/>
+    </row>
+    <row r="337" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="4"/>
+    </row>
+    <row r="338" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3"/>
+    </row>
+    <row r="339" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="4"/>
+    </row>
+    <row r="340" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3"/>
+    </row>
+    <row r="341" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="4"/>
+    </row>
+    <row r="342" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="3"/>
+    </row>
+    <row r="343" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="4"/>
+    </row>
+    <row r="344" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="3"/>
+    </row>
+    <row r="345" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="4"/>
+    </row>
+    <row r="346" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="5"/>
+    </row>
+    <row r="347" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="4"/>
+    </row>
+    <row r="348" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3"/>
+    </row>
+    <row r="349" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="4"/>
+    </row>
+    <row r="350" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3"/>
+    </row>
+    <row r="351" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="4"/>
+    </row>
+    <row r="352" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3"/>
+    </row>
+    <row r="353" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="4"/>
+    </row>
+    <row r="354" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3"/>
+    </row>
+    <row r="355" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="4"/>
+    </row>
+    <row r="356" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3"/>
+    </row>
+    <row r="357" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="4"/>
+    </row>
+    <row r="358" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3"/>
+    </row>
+    <row r="359" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="4"/>
+    </row>
+    <row r="360" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3"/>
+    </row>
+    <row r="361" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="4"/>
+    </row>
+    <row r="362" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3"/>
+    </row>
+    <row r="363" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="4"/>
+    </row>
+    <row r="364" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3"/>
+    </row>
+    <row r="365" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="4"/>
+    </row>
+    <row r="366" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3"/>
+    </row>
+    <row r="367" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="4"/>
+    </row>
+    <row r="368" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="3"/>
+    </row>
+    <row r="369" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="4"/>
+    </row>
+    <row r="370" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3"/>
+    </row>
+    <row r="371" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="4"/>
+    </row>
+    <row r="372" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="3"/>
+    </row>
+    <row r="373" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="4"/>
+    </row>
+    <row r="374" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="3"/>
+    </row>
+    <row r="375" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="4"/>
+    </row>
+    <row r="376" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3"/>
+    </row>
+    <row r="377" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="4"/>
+    </row>
+    <row r="378" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="3"/>
+    </row>
+    <row r="379" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="4"/>
+    </row>
+    <row r="380" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3"/>
+    </row>
+    <row r="381" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="4"/>
+    </row>
+    <row r="382" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="3"/>
+    </row>
+    <row r="383" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="4"/>
+    </row>
+    <row r="384" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3"/>
+    </row>
+    <row r="385" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="4"/>
+    </row>
+    <row r="386" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3"/>
+    </row>
+    <row r="387" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="4"/>
+    </row>
+    <row r="388" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="3"/>
+    </row>
+    <row r="389" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="4"/>
+    </row>
+    <row r="390" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="3"/>
+    </row>
+    <row r="391" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="4"/>
+    </row>
+    <row r="392" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="3"/>
+    </row>
+    <row r="393" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="4"/>
+    </row>
+    <row r="394" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3"/>
+    </row>
+    <row r="395" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="4"/>
+    </row>
+    <row r="396" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3"/>
+    </row>
+    <row r="397" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="4"/>
+    </row>
+    <row r="398" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3"/>
+    </row>
+    <row r="399" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="4"/>
+    </row>
+    <row r="400" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="3"/>
+    </row>
+    <row r="401" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="4"/>
+    </row>
+    <row r="402" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="3"/>
+    </row>
+    <row r="403" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="4"/>
+    </row>
+    <row r="404" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="3"/>
+    </row>
+    <row r="405" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="4"/>
+    </row>
+    <row r="406" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="3"/>
+    </row>
+    <row r="407" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="4"/>
+    </row>
+    <row r="408" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="3"/>
+    </row>
+    <row r="409" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="4"/>
+    </row>
+    <row r="410" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="3"/>
+    </row>
+    <row r="411" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="4"/>
+    </row>
+    <row r="412" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3"/>
+    </row>
+    <row r="413" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="4"/>
+    </row>
+    <row r="414" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="3"/>
+    </row>
+    <row r="415" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="4"/>
+    </row>
+    <row r="416" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="3"/>
+    </row>
+    <row r="417" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="4"/>
+    </row>
+    <row r="418" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="3"/>
+    </row>
+    <row r="419" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="4"/>
+    </row>
+    <row r="420" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="3"/>
+    </row>
+    <row r="421" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="4"/>
+    </row>
+    <row r="422" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="3"/>
+    </row>
+    <row r="423" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="4"/>
+    </row>
+    <row r="424" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="3"/>
+    </row>
+    <row r="425" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="4"/>
+    </row>
+    <row r="426" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="3"/>
+    </row>
+    <row r="427" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="4"/>
+    </row>
+    <row r="428" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="3"/>
+    </row>
+    <row r="429" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="4"/>
+    </row>
+    <row r="430" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="3"/>
+    </row>
+    <row r="431" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="4"/>
+    </row>
+    <row r="432" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="3"/>
+    </row>
+    <row r="433" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="4"/>
+    </row>
+    <row r="434" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="3"/>
+    </row>
+    <row r="435" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="4"/>
+    </row>
+    <row r="436" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="3"/>
+    </row>
+    <row r="437" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="4"/>
+    </row>
+    <row r="438" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="3"/>
+    </row>
+    <row r="439" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="4"/>
+    </row>
+    <row r="440" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="3"/>
+    </row>
+    <row r="441" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="4"/>
+    </row>
+    <row r="442" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="3"/>
+    </row>
+    <row r="443" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="4"/>
+    </row>
+    <row r="444" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="3"/>
+    </row>
+    <row r="445" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="4"/>
+    </row>
+    <row r="446" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="3"/>
+    </row>
+    <row r="447" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="4"/>
+    </row>
+    <row r="448" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="3"/>
+    </row>
+    <row r="449" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="4"/>
+    </row>
+    <row r="450" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="3"/>
+    </row>
+    <row r="451" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="4"/>
+    </row>
+    <row r="452" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="3"/>
+    </row>
+    <row r="453" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="4"/>
+    </row>
+    <row r="454" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="3"/>
+    </row>
+    <row r="455" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="4"/>
+    </row>
+    <row r="456" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3"/>
+    </row>
+    <row r="457" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="4"/>
+    </row>
+    <row r="458" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="3"/>
+    </row>
+    <row r="459" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="4"/>
+    </row>
+    <row r="460" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="3"/>
+    </row>
+    <row r="461" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="4"/>
+    </row>
+    <row r="462" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="3"/>
+    </row>
+    <row r="463" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="4"/>
+    </row>
+    <row r="464" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="3"/>
+    </row>
+    <row r="465" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="4"/>
+    </row>
+    <row r="466" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="3"/>
+    </row>
+    <row r="467" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="4"/>
+    </row>
+    <row r="468" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="3"/>
+    </row>
+    <row r="469" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="4"/>
+    </row>
+    <row r="470" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="3"/>
+    </row>
+    <row r="471" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="4"/>
+    </row>
+    <row r="472" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="3"/>
+    </row>
+    <row r="473" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="4"/>
+    </row>
+    <row r="474" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="3"/>
+    </row>
+    <row r="475" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="4"/>
+    </row>
+    <row r="476" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="3"/>
+    </row>
+    <row r="477" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="4"/>
+    </row>
+    <row r="478" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="3"/>
+    </row>
+    <row r="479" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="4"/>
+    </row>
+    <row r="480" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="3"/>
+    </row>
+    <row r="481" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="4"/>
+    </row>
+    <row r="482" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="3"/>
+    </row>
+    <row r="483" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="4"/>
+    </row>
+    <row r="484" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="3"/>
+    </row>
+    <row r="485" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="4"/>
+    </row>
+    <row r="486" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="3"/>
+    </row>
+    <row r="487" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="4"/>
+    </row>
+    <row r="488" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="3"/>
+    </row>
+    <row r="489" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="4"/>
+    </row>
+    <row r="490" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="3"/>
+    </row>
+    <row r="491" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="4"/>
+    </row>
+    <row r="492" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="3"/>
+    </row>
+    <row r="493" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="4"/>
+    </row>
+    <row r="494" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="3"/>
+    </row>
+    <row r="495" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="4"/>
+    </row>
+    <row r="496" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="3"/>
+    </row>
+    <row r="497" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="4"/>
+    </row>
+    <row r="498" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="3"/>
+    </row>
+    <row r="499" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="4"/>
+    </row>
+    <row r="500" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="3"/>
+    </row>
+    <row r="501" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="4"/>
+    </row>
+    <row r="502" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="3"/>
+    </row>
+    <row r="503" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="4"/>
+    </row>
+    <row r="504" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="3"/>
+    </row>
+    <row r="505" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="4"/>
+    </row>
+    <row r="506" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="3"/>
+    </row>
+    <row r="507" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="4"/>
+    </row>
+    <row r="508" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="3"/>
+    </row>
+    <row r="509" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="4"/>
+    </row>
+    <row r="510" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="3"/>
+    </row>
+    <row r="511" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="4"/>
+    </row>
+    <row r="512" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="3"/>
+    </row>
+    <row r="513" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="4"/>
+    </row>
+    <row r="514" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="3"/>
+    </row>
+    <row r="515" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="4"/>
+    </row>
+    <row r="516" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="3"/>
+    </row>
+    <row r="517" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="4"/>
+    </row>
+    <row r="518" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="3"/>
+    </row>
+    <row r="519" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="4"/>
+    </row>
+    <row r="520" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="3"/>
+    </row>
+    <row r="521" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="4"/>
+    </row>
+    <row r="522" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="3"/>
+    </row>
+    <row r="523" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="4"/>
+    </row>
+    <row r="524" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="3"/>
+    </row>
+    <row r="525" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="4"/>
+    </row>
+    <row r="526" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="3"/>
+    </row>
+    <row r="527" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="4"/>
+    </row>
+    <row r="528" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="3"/>
+    </row>
+    <row r="529" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="4"/>
+    </row>
+    <row r="530" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="3"/>
+    </row>
+    <row r="531" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="4"/>
+    </row>
+    <row r="532" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="3"/>
+    </row>
+    <row r="533" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="4"/>
+    </row>
+    <row r="534" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="3"/>
+    </row>
+    <row r="535" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="4"/>
+    </row>
+    <row r="536" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="3"/>
+    </row>
+    <row r="537" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="4"/>
+    </row>
+    <row r="538" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="3"/>
+    </row>
+    <row r="539" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="4"/>
+    </row>
+    <row r="540" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="3"/>
+    </row>
+    <row r="541" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="4"/>
+    </row>
+    <row r="542" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="3"/>
+    </row>
+    <row r="543" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="4"/>
+    </row>
+    <row r="544" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="3"/>
+    </row>
+    <row r="545" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="4"/>
+    </row>
+    <row r="546" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="3"/>
+    </row>
+    <row r="547" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="4"/>
+    </row>
+    <row r="548" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="3"/>
+    </row>
+    <row r="549" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="4"/>
+    </row>
+    <row r="550" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="3"/>
+    </row>
+    <row r="551" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="4"/>
+    </row>
+    <row r="552" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="3"/>
+    </row>
+    <row r="553" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="4"/>
+    </row>
+    <row r="554" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="3"/>
+    </row>
+    <row r="555" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="4"/>
+    </row>
+    <row r="556" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="3"/>
+    </row>
+    <row r="557" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="4"/>
+    </row>
+    <row r="558" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="3"/>
+    </row>
+    <row r="559" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="4"/>
+    </row>
+    <row r="560" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="3"/>
+    </row>
+    <row r="561" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="4"/>
+    </row>
+    <row r="562" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="3"/>
+    </row>
+    <row r="563" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="4"/>
+    </row>
+    <row r="564" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="3"/>
+    </row>
+    <row r="565" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="4"/>
+    </row>
+    <row r="566" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="3"/>
+    </row>
+    <row r="567" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="4"/>
+    </row>
+    <row r="568" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="3"/>
+    </row>
+    <row r="569" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="4"/>
+    </row>
+    <row r="570" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="3"/>
+    </row>
+    <row r="571" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="4"/>
+    </row>
+    <row r="572" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="3"/>
+    </row>
+    <row r="573" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="4"/>
+    </row>
+    <row r="574" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="3"/>
+    </row>
+    <row r="575" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="4"/>
+    </row>
+    <row r="576" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="3"/>
+    </row>
+    <row r="577" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="4"/>
+    </row>
+    <row r="578" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="3"/>
+    </row>
+    <row r="579" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="4"/>
+    </row>
+    <row r="580" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="3"/>
+    </row>
+    <row r="581" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="4"/>
+    </row>
+    <row r="582" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="3"/>
+    </row>
+    <row r="583" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="4"/>
+    </row>
+    <row r="584" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="3"/>
+    </row>
+    <row r="585" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="4"/>
+    </row>
+    <row r="586" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="3"/>
+    </row>
+    <row r="587" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="4"/>
+    </row>
+    <row r="588" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="3"/>
+    </row>
+    <row r="589" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="4"/>
+    </row>
+    <row r="590" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="3"/>
+    </row>
+    <row r="591" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="4"/>
+    </row>
+    <row r="592" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="3"/>
+    </row>
+    <row r="593" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="4"/>
+    </row>
+    <row r="594" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="3"/>
+    </row>
+    <row r="595" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="4"/>
+    </row>
+    <row r="596" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="3"/>
+    </row>
+    <row r="597" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="4"/>
+    </row>
+    <row r="598" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="3"/>
+    </row>
+    <row r="599" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="4"/>
+    </row>
+    <row r="600" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="3"/>
+    </row>
+    <row r="601" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="4"/>
+    </row>
+    <row r="602" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A602" s="3"/>
+    </row>
+    <row r="603" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="4"/>
+    </row>
+    <row r="604" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A604" s="3"/>
+    </row>
+    <row r="605" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A605" s="4"/>
+    </row>
+    <row r="606" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A606" s="3"/>
+    </row>
+    <row r="607" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A607" s="4"/>
+    </row>
+    <row r="608" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A608" s="3"/>
+    </row>
+    <row r="609" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A609" s="4"/>
+    </row>
+    <row r="610" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A610" s="3"/>
+    </row>
+    <row r="611" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A611" s="4"/>
+    </row>
+    <row r="612" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="3"/>
+    </row>
+    <row r="613" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="4"/>
+    </row>
+    <row r="614" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="3"/>
+    </row>
+    <row r="615" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="4"/>
+    </row>
+    <row r="616" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="3"/>
+    </row>
+    <row r="617" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A617" s="4"/>
+    </row>
+    <row r="618" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A618" s="3"/>
+    </row>
+    <row r="619" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="4"/>
+    </row>
+    <row r="620" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A620" s="3"/>
+    </row>
+    <row r="621" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="4"/>
+    </row>
+    <row r="622" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="3"/>
+    </row>
+    <row r="623" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="4"/>
+    </row>
+    <row r="624" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="3"/>
+    </row>
+    <row r="625" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A625" s="4"/>
+    </row>
+    <row r="626" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="3"/>
+    </row>
+    <row r="627" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="4"/>
+    </row>
+    <row r="628" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="3"/>
+    </row>
+    <row r="629" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="4"/>
+    </row>
+    <row r="630" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="3"/>
+    </row>
+    <row r="631" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A631" s="4"/>
+    </row>
+    <row r="632" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="3"/>
+    </row>
+    <row r="633" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A633" s="4"/>
+    </row>
+    <row r="634" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A634" s="3"/>
+    </row>
+    <row r="635" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="4"/>
+    </row>
+    <row r="636" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A636" s="3"/>
+    </row>
+    <row r="637" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="4"/>
+    </row>
+    <row r="638" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="3"/>
+    </row>
+    <row r="639" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="4"/>
+    </row>
+    <row r="640" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="3"/>
+    </row>
+    <row r="641" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A641" s="4"/>
+    </row>
+    <row r="642" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="3"/>
+    </row>
+    <row r="643" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="4"/>
+    </row>
+    <row r="644" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="3"/>
+    </row>
+    <row r="645" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="4"/>
+    </row>
+    <row r="646" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A646" s="3"/>
+    </row>
+    <row r="647" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A647" s="4"/>
+    </row>
+    <row r="648" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A648" s="3"/>
+    </row>
+    <row r="649" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A649" s="4"/>
+    </row>
+    <row r="650" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A650" s="3"/>
+    </row>
+    <row r="651" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A651" s="4"/>
+    </row>
+    <row r="652" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A652" s="3"/>
+    </row>
+    <row r="653" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="4"/>
+    </row>
+    <row r="654" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="3"/>
+    </row>
+    <row r="655" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="4"/>
+    </row>
+    <row r="656" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="3"/>
+    </row>
+    <row r="657" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="4"/>
+    </row>
+    <row r="658" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="3"/>
+    </row>
+    <row r="659" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A659" s="4"/>
+    </row>
+    <row r="660" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A660" s="3"/>
+    </row>
+    <row r="661" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A661" s="6"/>
+    </row>
+    <row r="662" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A662" s="7"/>
+    </row>
+    <row r="663" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A663" s="8"/>
+    </row>
+    <row r="664" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A664" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId3" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId3" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>